--- a/04_Base/03/HomeWork_1.xlsx
+++ b/04_Base/03/HomeWork_1.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\lessons\04_Base\03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F1351-C97C-42B7-B8A1-0974FE185917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ДЗ_1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ДЗ_2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ДЗ_3" sheetId="3" r:id="rId6"/>
+    <sheet name="ДЗ_1" sheetId="1" r:id="rId1"/>
+    <sheet name="ДЗ_2" sheetId="2" r:id="rId2"/>
+    <sheet name="ДЗ_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -342,50 +351,57 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
-    <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="40.0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="40"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -396,7 +412,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -430,27 +446,39 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -460,6 +488,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -468,136 +497,132 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -787,443 +812,448 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="14.38"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
-        <v>347.0</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="4">
+        <v>347</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9">
-        <v>27468.0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="5">
+        <v>27468</v>
+      </c>
+      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="9">
-        <v>22662.0</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="5">
+        <v>22662</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11">
-        <v>509.0</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="7">
+        <v>509</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12">
-        <v>28520.0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="I4" s="8">
+        <v>28520</v>
+      </c>
+      <c r="J4" s="7">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="13">
-        <v>27697.0</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="9">
+        <v>27697</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
-        <v>509.0</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="4">
+        <v>509</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9">
-        <v>29826.0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="5">
+        <v>29826</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="9">
-        <v>29040.0</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="O5" s="5">
+        <v>29040</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11">
-        <v>732.0</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="7">
+        <v>732</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="13">
-        <v>32437.0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="9">
+        <v>32437</v>
+      </c>
+      <c r="J6" s="7">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="12">
-        <v>22300.0</v>
-      </c>
-      <c r="P6" s="11" t="s">
+      <c r="O6" s="8">
+        <v>22300</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8">
-        <v>732.0</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="4">
+        <v>732</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="14">
-        <v>24786.0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="10">
+        <v>24786</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="14">
-        <v>32872.0</v>
-      </c>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="10">
+        <v>32872</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="57.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
-        <v>845.0</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="7">
+        <v>845</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="12">
-        <v>31203.0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="8">
+        <v>31203</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="12">
-        <v>33341.0</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="O8" s="8">
+        <v>33341</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.75">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="51" x14ac:dyDescent="0.75">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="51" x14ac:dyDescent="0.75">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" ht="51" x14ac:dyDescent="0.75">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1231,403 +1261,407 @@
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="L1:P1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="19" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="22">
-        <v>32916.0</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="18">
+        <v>32916</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="24">
-        <v>126.0</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="20">
+        <v>126</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="26">
-        <v>32916.0</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="22">
+        <v>32916</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="28">
-        <v>127.0</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="24">
+        <v>127</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="22">
-        <v>37152.0</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="18">
+        <v>37152</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="24">
-        <v>527.0</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="20">
+        <v>527</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="26">
-        <v>30429.0</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="22">
+        <v>30429</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="28">
-        <v>234.0</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="24">
+        <v>234</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="22">
-        <v>30430.0</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="18">
+        <v>30430</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="24">
-        <v>235.0</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="20">
+        <v>235</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="26">
-        <v>35936.0</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="22">
+        <v>35936</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="28">
-        <v>456.0</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="24">
+        <v>456</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="22">
-        <v>39276.0</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="18">
+        <v>39276</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="24">
-        <v>643.0</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="20">
+        <v>643</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="26">
-        <v>39276.0</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="22">
+        <v>39276</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="28">
-        <v>654.0</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="24">
+        <v>654</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="22">
-        <v>31841.0</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="18">
+        <v>31841</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="24">
-        <v>412.0</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="20">
+        <v>412</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="26">
-        <v>32736.0</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="22">
+        <v>32736</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="28">
-        <v>723.0</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="24">
+        <v>723</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="22">
-        <v>35438.0</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="18">
+        <v>35438</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="24">
-        <v>876.0</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="20">
+        <v>876</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="26">
-        <v>35438.0</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="22">
+        <v>35438</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="28">
-        <v>875.0</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="24">
+        <v>875</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="22">
-        <v>35402.0</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="18">
+        <v>35402</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="24">
-        <v>933.0</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="20">
+        <v>933</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="19" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>